--- a/spring-cloud/ezgo/服务之间的调用关系.xlsx
+++ b/spring-cloud/ezgo/服务之间的调用关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notebook\study-note\spring-cloud\ezgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0552B4A-FA04-4289-B1F3-3DFC8DDE23E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6B380-F3E9-4D14-BCA9-D609F93010DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>服务自身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,14 +117,6 @@
     <t>prodiver-payment-zookeeper-8004</t>
   </si>
   <si>
-    <t>zookeeper1:2181（linux）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zookeeper2:2181（linux）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用zookeeper作为注册中心，当只有prodiver-payment-zookeeper-8003的时候是单机版，否则是集群版</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,26 +129,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1RestTemplate（Rest风格调用）：com.order.controller.OrderConsulController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.31.39:8500(Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.31.39:9500(Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.31.39:10500(Windows)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用consul作为注册中心，当只有prodiver-payment-consul-8005的时候是单机版，否则是集群版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1RestTemplate（Rest风格调用）：com.order.controller.OrderController
+2.模拟Ribbon的轮询负载均衡：
+com.order.controller.LoadBalanceController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer-feign-order-6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用Feign进行远程接口调用（包含基本调用、超时时间、日志打印）：
+com.feign.controller.FeignController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper1:2281（linux）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper1:2282（linux）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zookeeper1:2283（linux）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.OpenFeign风格调用：
+com.feign.controller.FeignController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ezgo-eureka-server-7001</t>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka来进行Feign的远程调用测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer-hystrix-order-6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程服务对应的Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客户端自身的单个方法服务降级，整个Controll服务降级，整个调用远程的service服务降级：
+com.hystrix.controller.HystrixOrderController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodiver-payment-hystrix-8007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.服务端服务降级、服务熔断、服务限流
+com.hystrix.controller.PaymentController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka来进行Feign的远程调用，测试Hystrix对应的服务降级情况</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.获取Eureka注册中心响应的服务注册信息
+com.payment.controller.FetchConfigController
+2.测试客服端通过注册中心访问服务端的相应方法提供者，以及服务端模拟超时的情况
+com.payment.controller.PaymentController
+3.测试客户端手写的负载均衡调用方法：
+com.payment.controller.LoadBalanceController
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同prodiver-payment-8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用zookeeper作为注册中心，简单的对外提供支付系统的逻辑：
+com.payment.controller.PaymentController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同prodiver-payment-zookeeper-8003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用consul作为注册中心，简单的对外提供查看端口的支付系统逻辑：
+payment.controller.PaymentController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>prodiver-payment-consul-8006</t>
-  </si>
-  <si>
-    <t>1RestTemplate（Rest风格调用）：com.order.controller.OrderConsulController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.31.39:8500(Windows)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.31.39:9500(Windows)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.31.39:10500(Windows)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用consul作为注册中心，当只有prodiver-payment-consul-8005的时候是单机版，否则是集群版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同prodiver-payment-consul-8005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumer-hystrix-dashboard-9002</t>
+  </si>
+  <si>
+    <t>暂无（对prodiver-payment-hystrix-8007）服务的流量通过图形化界面进行监控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,12 +295,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,19 +321,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,26 +621,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.08203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="4" width="33.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -539,30 +651,34 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -570,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,124 +696,261 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1" t="s">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
+  <mergeCells count="12">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spring-cloud/ezgo/服务之间的调用关系.xlsx
+++ b/spring-cloud/ezgo/服务之间的调用关系.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notebook\study-note\spring-cloud\ezgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF6B380-F3E9-4D14-BCA9-D609F93010DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DA97F0-4F75-4102-9EA0-40DCA272A166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>服务自身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,10 +253,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>spring-cloud-gateway1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>cloud-config-server-2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过application.yml配置，从github上面拉取配置信息，将配置信息全局推送或定点推送到其他服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>consumer-hystrix-dashboard-9002</t>
-  </si>
-  <si>
-    <t>暂无（对prodiver-payment-hystrix-8007）服务的流量通过图形化界面进行监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.（对prodiver-payment-hystrix-8007）服务的流量通过图形化界面进行监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Java类实现网关的配置：com.gateway.config.GateWayConfig
+2.自定义的全局网关过滤器：com.gateway.filter.MyGlobalFilter
+3.对prodiver-payment-8001服务的请求进行网关拦截，参见application.yml配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-config-client-2002/cloud-config-client-2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.测试从cloud-config-server-2001配置服务端拉取配置信息，包括手动刷新，全局通知和定点通知：
+com.config.controller.ConfigController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +320,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -321,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -333,13 +377,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.58203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="33.08203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -700,56 +759,56 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -761,13 +820,13 @@
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
@@ -777,69 +836,69 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -851,13 +910,13 @@
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
@@ -867,33 +926,33 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -917,23 +976,83 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/spring-cloud/ezgo/服务之间的调用关系.xlsx
+++ b/spring-cloud/ezgo/服务之间的调用关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\notebook\study-note\spring-cloud\ezgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DA97F0-4F75-4102-9EA0-40DCA272A166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE41382-626F-4148-899D-8D34246D8589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>服务自身</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,9 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ezgo-eureka-server-7001</t>
-  </si>
-  <si>
     <t>使用eureka作为注册中心，使用单机版的eureka来进行Feign的远程调用测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,9 +205,6 @@
     <t>1.服务端服务降级、服务熔断、服务限流
 com.hystrix.controller.PaymentController</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用eureka作为注册中心，使用单机版的eureka来进行Feign的远程调用，测试Hystrix对应的服务降级情况</t>
   </si>
   <si>
     <t xml:space="preserve">1.获取Eureka注册中心响应的服务注册信息
@@ -257,9 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂无</t>
-  </si>
-  <si>
     <t>cloud-config-server-2001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,6 +279,68 @@
   <si>
     <t>1.测试从cloud-config-server-2001配置服务端拉取配置信息，包括手动刷新，全局通知和定点通知：
 com.config.controller.ConfigController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka来进行Feign的远程调用，测试Hystrix对应的服务降级情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka来对请求进行断言及过滤的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka从远程仓库中获取配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka从配置中心微服务中获取配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-stream-rabbitmq-consumer-3002/cloud-stream-rabbitmq-consumer-3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.监听普通的消息队列，使用默认的通道input、output：
+com.stream.controller.MessageConsumerController
+2.监听复杂的消息队列，使用自定义的通道、包括队列过时、死信队列、监听队列转发等操作：
+com.stream.controller.CustomMessageConsumerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-stream-rabbitmq-server-3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对默认通道input/output和自定义通道custom_input/custom_output发送消息，消息的发送规则参见application.yml：
+com.stream.controller.MessageServerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka测试SpringCloud Stream整合消息队列的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-sleuth-client-1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.简单的远程调用（从远程服务中获取端口号），用于测试SpringCloud Sleuth的图形化链路追踪功能：
+com.sleuth.controller.SleuthController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-sleuth-server-1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.返回当前应用的端口号，用于测试SpringCloud Sleuth的图形化链路追踪功能：
+com.sleuth.SleuthServerApplication1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用eureka作为注册中心，使用单机版的eureka测试SpringCloud Sleuth的图形化链路追踪功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,15 +432,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +443,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,17 +733,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.58203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="33.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.08203125" style="1" customWidth="1"/>
@@ -710,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -756,188 +810,188 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -953,41 +1007,41 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>10</v>
@@ -1004,36 +1058,36 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>10</v>
+      <c r="E21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1044,16 +1098,56 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
